--- a/medicine/Sexualité et sexologie/Frein_du_clitoris/Frein_du_clitoris.xlsx
+++ b/medicine/Sexualité et sexologie/Frein_du_clitoris/Frein_du_clitoris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le frein du clitoris (frenulum clitoridis en latin), aussi appelé frein vulvaire[1] ou bien frein des lévres de la vulve[2], est un frein, c'est-à-dire une languette de tissus, qui maintient les petites lèvres avec le gland du clitoris. Il est situé entre ces deux derniers et juste au-dessus du vestibule vulvaire. Ce frein est formé par l'insertion des petites lèvres dans la partie postérieure du clitoris. Il est coupé lors de l'excision[1],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le frein du clitoris (frenulum clitoridis en latin), aussi appelé frein vulvaire ou bien frein des lévres de la vulve, est un frein, c'est-à-dire une languette de tissus, qui maintient les petites lèvres avec le gland du clitoris. Il est situé entre ces deux derniers et juste au-dessus du vestibule vulvaire. Ce frein est formé par l'insertion des petites lèvres dans la partie postérieure du clitoris. Il est coupé lors de l'excision,.
 </t>
         </is>
       </c>
